--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6870" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6930" uniqueCount="1020">
   <si>
     <t>TestCase</t>
   </si>
@@ -3082,6 +3082,45 @@
   </si>
   <si>
     <t>VerifyThatAnswerWillBeChangedAfterApplyFilter</t>
+  </si>
+  <si>
+    <t>Verify_That_Voting_Icon_Is_Not_Display_Once_User_Submits_Their_Feedback_For_Summary</t>
+  </si>
+  <si>
+    <t>SelectSmileIconForVoteTheSummary</t>
+  </si>
+  <si>
+    <t>SelectFeedbackOption</t>
+  </si>
+  <si>
+    <t>VerifyFeedbackIconIsNotDisplayOnceUserSubmitsTheirFeedbackForSummary</t>
+  </si>
+  <si>
+    <t>Verify_That_Client_Filter_Are_Working</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>7 Energy</t>
+  </si>
+  <si>
+    <t>VerifyThatClientFilterIsWorking</t>
+  </si>
+  <si>
+    <t>Verify_That_Text_Bubble_Is_Not_Showing_Too_Bright</t>
+  </si>
+  <si>
+    <t>VerifyThatTextBubleIsNotTooBright</t>
+  </si>
+  <si>
+    <t>VerifyThatDecisionOptionIsNotShowing</t>
+  </si>
+  <si>
+    <t>Verify_That_Decision_Option_Is_Available_On_Result_Page</t>
   </si>
 </sst>
 </file>
@@ -3831,9 +3870,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
       <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
@@ -3903,21 +3942,18 @@
         <v>37</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G2" s="31" t="s">
         <v>562</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -4411,18 +4447,15 @@
         <v>559</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>561</v>
+        <v>756</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="H20" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1">
       <c r="A21" s="14" t="s">
@@ -4519,15 +4552,12 @@
         <v>37</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>561</v>
+        <v>561</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="H24" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4673,24 +4703,21 @@
         <v>37</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>44</v>
+        <v>627</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
@@ -5011,21 +5038,18 @@
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="I40" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5644,36 +5668,33 @@
         <v>37</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>44</v>
+        <v>993</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>993</v>
-      </c>
-      <c r="J56" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>506</v>
       </c>
+      <c r="K56" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="L56" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="M56" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="O56" s="31" t="s">
+      <c r="N56" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5723,21 +5744,18 @@
         <v>37</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>44</v>
+        <v>702</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="J58" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6368,21 +6386,18 @@
         <v>37</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>561</v>
+        <v>214</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>216</v>
+        <v>754</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="J77" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8320,18 +8335,15 @@
         <v>37</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>562</v>
+        <v>902</v>
       </c>
       <c r="H130" s="31" t="s">
-        <v>902</v>
-      </c>
-      <c r="I130" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9317,15 +9329,12 @@
         <v>980</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="J162" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="K162" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="J162" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="L162" s="31" t="s">
+      <c r="K162" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9630,6 +9639,146 @@
         <v>1006</v>
       </c>
       <c r="J170" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="28.8">
+      <c r="A171" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G171" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H171" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J171" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K171" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M171" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I172" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J172" s="31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K172" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="28.8">
+      <c r="A173" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G173" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H173" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J173" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="28.8">
+      <c r="A174" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H174" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J174" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9644,11 +9793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC346"/>
+  <dimension ref="A1:AC350"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15267,8 +15416,8 @@
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
       <c r="K205" s="18"/>
-      <c r="L205" s="29" t="s">
-        <v>626</v>
+      <c r="L205" s="30" t="s">
+        <v>639</v>
       </c>
       <c r="M205" s="18"/>
       <c r="N205" s="18"/>
@@ -18542,10 +18691,96 @@
         <v>1002</v>
       </c>
     </row>
+    <row r="347" spans="1:17" ht="43.2">
+      <c r="A347" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B347" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D347" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E347" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L347" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17">
+      <c r="A348" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B348" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D348" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E348" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L348" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P348" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q348" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" ht="28.8">
+      <c r="A349" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B349" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E349" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L349" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" ht="28.8">
+      <c r="A350" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B350" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D350" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E350" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L350" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E346">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E350">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19037,9 +19272,17 @@
     <hyperlink ref="D345" r:id="rId482"/>
     <hyperlink ref="C346" r:id="rId483"/>
     <hyperlink ref="D346" r:id="rId484"/>
+    <hyperlink ref="C347" r:id="rId485"/>
+    <hyperlink ref="D347" r:id="rId486"/>
+    <hyperlink ref="C348" r:id="rId487"/>
+    <hyperlink ref="D348" r:id="rId488"/>
+    <hyperlink ref="C349" r:id="rId489"/>
+    <hyperlink ref="D349" r:id="rId490"/>
+    <hyperlink ref="C350" r:id="rId491"/>
+    <hyperlink ref="D350" r:id="rId492"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId485"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId493"/>
 </worksheet>
 </file>
 

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6930" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6938" uniqueCount="1020">
   <si>
     <t>TestCase</t>
   </si>
@@ -3872,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3942,18 +3942,21 @@
         <v>37</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -4552,12 +4555,15 @@
         <v>37</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="F24" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="H24" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4703,21 +4709,24 @@
         <v>37</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F29" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="H29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="I29" s="31" t="s">
         <v>627</v>
       </c>
-      <c r="I29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
@@ -5038,18 +5047,21 @@
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F40" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="H40" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="J40" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5668,33 +5680,36 @@
         <v>37</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F56" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="H56" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="I56" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="J56" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="L56" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="M56" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="N56" s="31" t="s">
+      <c r="O56" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5744,18 +5759,21 @@
         <v>37</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F58" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="H58" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="I58" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="J58" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6386,18 +6404,21 @@
         <v>37</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F77" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="H77" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="I77" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="J77" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9697,24 +9718,27 @@
         <v>37</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F172" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G172" s="31" t="s">
         <v>998</v>
       </c>
-      <c r="G172" s="31" t="s">
+      <c r="H172" s="31" t="s">
         <v>999</v>
       </c>
-      <c r="H172" s="31" t="s">
+      <c r="I172" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I172" s="31" t="s">
+      <c r="J172" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J172" s="31" t="s">
+      <c r="K172" s="31" t="s">
         <v>1015</v>
       </c>
-      <c r="K172" s="31" t="s">
+      <c r="L172" s="31" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6938" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1050">
   <si>
     <t>TestCase</t>
   </si>
@@ -3121,6 +3121,96 @@
   </si>
   <si>
     <t>Verify_That_Decision_Option_Is_Available_On_Result_Page</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Name_Is_Display_In_Camel_Case_Word</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatatNameIsDsiplayInCamelCaseWord</t>
+  </si>
+  <si>
+    <t>Verify_That_Previous_Button_Is_Working_Of_Pagination</t>
+  </si>
+  <si>
+    <t>VerifyThatPreviousButtonIsWorkingOfPagination</t>
+  </si>
+  <si>
+    <t>Verify_That_Upload_File_Button_Is_Working</t>
+  </si>
+  <si>
+    <t>Verify_That_Post_To_Expert_Button_Is_Clickable</t>
+  </si>
+  <si>
+    <t>Musk said a tesla semi would typically use how many cells as a car</t>
+  </si>
+  <si>
+    <t>VerifyThatPostToExpertButtonIsClickable</t>
+  </si>
+  <si>
+    <t>Verify_That_Clicking_Between_Questions_Do_Not_Close_The_Search_Bar</t>
+  </si>
+  <si>
+    <t>VerifyThatClickingBetweenQuestionsDoNotCloseTheSearchBar</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Selection_PopUp_Show_Every_Time_The_User_Login</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatarSelectionPoupIsDisplayEveryTimeLogin</t>
+  </si>
+  <si>
+    <t>Verify_That_Upvoted_Answer_Is_Showing_At_The_Top</t>
+  </si>
+  <si>
+    <t>What is the effect of the structural effect on energy use</t>
+  </si>
+  <si>
+    <t>VerifyThatUpvotedAnswerIsShowingAtTheTop</t>
+  </si>
+  <si>
+    <t>Verify_That_Enter_Button_Is_Working_With_Chinook_Avatar</t>
+  </si>
+  <si>
+    <t>Chinook</t>
+  </si>
+  <si>
+    <t>VerifyThatEnterButtonIsWorking</t>
+  </si>
+  <si>
+    <t>PressEnterKey</t>
+  </si>
+  <si>
+    <t>Verify_That_Card_And_Tree_View_Is_Display</t>
+  </si>
+  <si>
+    <t>VerifyThatCardAndTreeViewIsDisplayed</t>
+  </si>
+  <si>
+    <t>Verify_That_Open_Extras_Panel_Is_Display_And_There_Are_Multiple_Option_In_The_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatThereAreMultipleOptionInTheOpenExtrasPanel</t>
+  </si>
+  <si>
+    <t>ClickOnOpenExtrasIcon</t>
+  </si>
+  <si>
+    <t>Verify_That_Open_Extras_Panel_Is_Display</t>
+  </si>
+  <si>
+    <t>VerifyThatSideOpenExtrasPanelIsDisplayed</t>
+  </si>
+  <si>
+    <t>Verify_That_Nesh_Bubble_Text_Show_Different_For_Normal_Question_And_Low_Confidence_Qustion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What can incentivize low-cost hydrogen projects</t>
+  </si>
+  <si>
+    <t>VerifyThatNeshBubbleTextIsDifferentForNormalQuestionAndLowConfidenceQuestion</t>
+  </si>
+  <si>
+    <t>what</t>
   </si>
 </sst>
 </file>
@@ -3870,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9806,6 +9896,378 @@
         <v>6</v>
       </c>
     </row>
+    <row r="175" spans="1:19" ht="28.8">
+      <c r="A175" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F175" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G175" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H175" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I175" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J175" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K175" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H176" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I176" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J176" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K176" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L176" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="28.8">
+      <c r="A177" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F177" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="H177" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I177" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F178" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H178" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="J178" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K178" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="28.8">
+      <c r="A179" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F179" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I179" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="28.8">
+      <c r="A180" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F180" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="28.8">
+      <c r="A181" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H181" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J181" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="28.8">
+      <c r="A182" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H182" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I182" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J182" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H183" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="43.2">
+      <c r="A184" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H184" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="28.8">
+      <c r="A185" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F185" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G185" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H185" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I185" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K185" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H186" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J186" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K186" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -9817,11 +10279,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC350"/>
+  <dimension ref="A1:AC362"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L207" sqref="L207"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18801,14 +19263,245 @@
         <v>163</v>
       </c>
     </row>
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
+      <c r="A351" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B351" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D351" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E351" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L351" s="7"/>
+    </row>
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
+      <c r="A352" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B352" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E352" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L352" s="7"/>
+    </row>
+    <row r="353" spans="1:14" ht="28.8">
+      <c r="A353" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B353" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D353" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E353" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="43.2">
+      <c r="A354" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B354" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D354" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E354" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L354" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="28.8">
+      <c r="A355" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B355" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D355" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E355" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="28.8">
+      <c r="A356" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B356" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D356" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E356" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="28.8">
+      <c r="A357" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B357" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D357" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E357" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L357" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="28.8">
+      <c r="A358" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B358" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D358" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E358" s="63" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L358" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="28.8">
+      <c r="A359" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B359" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E359" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L359" s="7"/>
+    </row>
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
+      <c r="A360" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B360" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D360" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E360" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L360" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N360" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="43.2">
+      <c r="A361" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B361" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D361" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E361" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L361" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="28.8">
+      <c r="A362" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B362" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D362" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E362" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L362" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E350">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E357">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E362">
+      <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19304,9 +19997,33 @@
     <hyperlink ref="D349" r:id="rId490"/>
     <hyperlink ref="C350" r:id="rId491"/>
     <hyperlink ref="D350" r:id="rId492"/>
+    <hyperlink ref="C353" r:id="rId493"/>
+    <hyperlink ref="D353" r:id="rId494"/>
+    <hyperlink ref="C351" r:id="rId495"/>
+    <hyperlink ref="D351" r:id="rId496"/>
+    <hyperlink ref="C352" r:id="rId497"/>
+    <hyperlink ref="D352" r:id="rId498"/>
+    <hyperlink ref="C354" r:id="rId499"/>
+    <hyperlink ref="D354" r:id="rId500"/>
+    <hyperlink ref="C355" r:id="rId501"/>
+    <hyperlink ref="D355" r:id="rId502"/>
+    <hyperlink ref="C356" r:id="rId503"/>
+    <hyperlink ref="D356" r:id="rId504"/>
+    <hyperlink ref="C357" r:id="rId505"/>
+    <hyperlink ref="D357" r:id="rId506"/>
+    <hyperlink ref="C358" r:id="rId507"/>
+    <hyperlink ref="D358" r:id="rId508"/>
+    <hyperlink ref="C359" r:id="rId509"/>
+    <hyperlink ref="D359" r:id="rId510"/>
+    <hyperlink ref="C361" r:id="rId511"/>
+    <hyperlink ref="D361" r:id="rId512"/>
+    <hyperlink ref="C362" r:id="rId513"/>
+    <hyperlink ref="D362" r:id="rId514"/>
+    <hyperlink ref="C360" r:id="rId515"/>
+    <hyperlink ref="D360" r:id="rId516"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId493"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId517"/>
 </worksheet>
 </file>
 
@@ -19402,8 +20119,8 @@
   <dimension ref="A1:S178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23513,7 +24230,7 @@
       <c r="F145" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="G145" s="14" t="s">
         <v>459</v>
       </c>
       <c r="H145" s="14" t="s">

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -3962,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -3210,7 +3210,7 @@
     <t>VerifyThatNeshBubbleTextIsDifferentForNormalQuestionAndLowConfidenceQuestion</t>
   </si>
   <si>
-    <t>what</t>
+    <t>eat</t>
   </si>
 </sst>
 </file>
@@ -3962,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="F172" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10281,9 +10281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC362"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J362" sqref="J362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -18,7 +18,7 @@
     <sheet name="TestCases" sheetId="3" r:id="rId4"/>
     <sheet name="NewTestCases (backupfile)" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1091">
   <si>
     <t>TestCase</t>
   </si>
@@ -3210,14 +3210,137 @@
     <t>VerifyThatNeshBubbleTextIsDifferentForNormalQuestionAndLowConfidenceQuestion</t>
   </si>
   <si>
-    <t>eat</t>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Verify_That_Graph_View_Is_Display_On_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatGraphViewIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Expert_Page_Have_Experts_That_Have_Trained_Nesh_Heading</t>
+  </si>
+  <si>
+    <t>ClickOnExpertNavigationIcon</t>
+  </si>
+  <si>
+    <t>VerifyThatExpertPageHaveTrainedNeshHeading</t>
+  </si>
+  <si>
+    <t>Verify_That_The_User_Can_Select_Avatar_On_Expert_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatTheUserCanSelectOtherAvatarOnTheExpertPage</t>
+  </si>
+  <si>
+    <t>Verify_That_The_Top_Three_Experts_Are_Shown_More_Prominently</t>
+  </si>
+  <si>
+    <t>VerifyThatTheTopThreeExpertsAreShownMoreProminentlyAndScoreIsDisplayedForEachExpert</t>
+  </si>
+  <si>
+    <t>Verify_That_Uploaded_File_Can_Be_Associated</t>
+  </si>
+  <si>
+    <t>VerifyThatUploadedFileCanBeAssociated</t>
+  </si>
+  <si>
+    <t>Verify_That_Blank_Cell_Not_Available_In_The_Popular_Questions_And_My_Questions_Section</t>
+  </si>
+  <si>
+    <t>VerifyThatBlankCellIsNotAvailableInThePopularQuestionsAndMyQuestionsSection</t>
+  </si>
+  <si>
+    <t>Verify_That_File_Created_Date_Filter_Option_Is_Working</t>
+  </si>
+  <si>
+    <t>Show me cfr 252 since 2019</t>
+  </si>
+  <si>
+    <t>File Created Date</t>
+  </si>
+  <si>
+    <t>ApplyFilter</t>
+  </si>
+  <si>
+    <t>Verify_That_Tree_View_Is_Display_On_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatTreeViewIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Clicking_On_The_Empty_Space_Above_The_Home_Button_Does_Not_Lead_To_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatClickingOnTheEmptySpaceAboveTheHomeButtonDoesNotLeadToTheHomePage</t>
+  </si>
+  <si>
+    <t>Verify_That_There_Is_Space_Available_Between_Password_Field_and_Forgot_Password_Option</t>
+  </si>
+  <si>
+    <t>VerifyThatThereIsSpaceAvailableBetweenPasswordFieldandForgotPasswordOption</t>
+  </si>
+  <si>
+    <t>Verify_That_Audit_Report_Option_Is_Available_on_The_Open_Extras_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatThereIsAuditReportOptionIsAvailableOnTheOpenExtrasPanel</t>
+  </si>
+  <si>
+    <t>Verify_That_Asked_Question_Is_Not_Available_On_The_Search_Bar_When_Recommended_Topic_Is_Clicked</t>
+  </si>
+  <si>
+    <t>ClickOnSearchRecommendedTopic</t>
+  </si>
+  <si>
+    <t>VerifyThatAskedQuestionIsNotAvailableOnTheSearchbar</t>
+  </si>
+  <si>
+    <t>EnterPeriod</t>
+  </si>
+  <si>
+    <t>VerifyThatCreatedDateFilterIsWorking</t>
+  </si>
+  <si>
+    <t>Verify_That_Files_Can_Be_Associate_With_Avatar</t>
+  </si>
+  <si>
+    <t>VerifyThatFolderCanBeAssociateWithAvatar</t>
+  </si>
+  <si>
+    <t>Verify_That_Expert_Cards_Design_Are_Same</t>
+  </si>
+  <si>
+    <t>VerifyThatExpertCardsDesignAreSame</t>
+  </si>
+  <si>
+    <t>What is the most common use of renewable energy in the mining industry</t>
+  </si>
+  <si>
+    <t>Verify_That_Summary_Content_Included_in_The_Top_Of_Answer</t>
+  </si>
+  <si>
+    <t>VerifyThatSummaryIsIncludedAtTheTopAnswer</t>
+  </si>
+  <si>
+    <t>Verify_That_Graph_View_Is_Display_On_The_Home_Page_For_Chinhook_Avatar</t>
+  </si>
+  <si>
+    <t>VerifyTopicsAreStillUnderAllThemeIfWhenChangedchannels</t>
+  </si>
+  <si>
+    <t>Verify_That_Decision_Section_Is_Display_In_The_The_Side_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatDecisionSectionIsDisplayedInTheSidePanel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3302,6 +3425,12 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3496,7 +3625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3660,6 +3789,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3960,35 +4104,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F172" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="H188" workbookViewId="0">
+      <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
     <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.77734375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
     <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
     <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.21875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
     <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.77734375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
     <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
     <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
     <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
     <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.21875" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
     <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
@@ -3997,26 +4141,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -4048,7 +4192,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -4112,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -4144,7 +4288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.8" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -4176,8 +4320,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" customHeight="1">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4293,7 +4437,7 @@
       <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="7" t="s">
         <v>581</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4540,17 +4684,20 @@
         <v>559</v>
       </c>
       <c r="F20" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="28.8" customHeight="1">
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.95" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>602</v>
       </c>
@@ -4651,7 +4798,7 @@
         <v>561</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>1088</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>6</v>
@@ -5426,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="28.8">
+    <row r="49" spans="1:21" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5461,7 +5608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.8">
+    <row r="50" spans="1:21" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5517,7 +5664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.8">
+    <row r="51" spans="1:21" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5551,35 +5698,38 @@
       <c r="K51" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="L51" s="31" t="s">
+      <c r="L51" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="M51" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="M51" s="31" t="s">
+      <c r="N51" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="N51" s="31" t="s">
+      <c r="O51" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="O51" s="31" t="s">
+      <c r="P51" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="P51" s="31" t="s">
+      <c r="Q51" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="Q51" s="31" t="s">
+      <c r="R51" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="R51" s="56" t="s">
+      <c r="S51" s="56" t="s">
         <v>506</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="T51" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="T51" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="28.8">
+      <c r="U51" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5605,43 +5755,46 @@
         <v>44</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="K52" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="L52" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="L52" s="31" t="s">
+      <c r="M52" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="N52" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="N52" s="31" t="s">
+      <c r="O52" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="O52" s="31" t="s">
+      <c r="P52" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="P52" s="31" t="s">
+      <c r="Q52" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="Q52" s="31" t="s">
+      <c r="R52" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="R52" s="52" t="s">
+      <c r="S52" s="52" t="s">
         <v>506</v>
       </c>
-      <c r="S52" s="7" t="s">
+      <c r="T52" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="T52" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="28.8">
+      <c r="U52" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5688,7 +5841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.8">
+    <row r="54" spans="1:21" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5720,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="28.8">
+    <row r="55" spans="1:21" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5756,7 +5909,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:20" ht="43.2">
+    <row r="56" spans="1:21" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -5803,7 +5956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.8">
+    <row r="57" spans="1:21" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -5835,7 +5988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:21">
       <c r="A58" s="31" t="s">
         <v>701</v>
       </c>
@@ -5867,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.8">
+    <row r="59" spans="1:21" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -5899,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="28.8">
+    <row r="60" spans="1:21" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -5931,7 +6084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="28.8">
+    <row r="61" spans="1:21" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -5963,7 +6116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.8">
+    <row r="62" spans="1:21" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6010,7 +6163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.8">
+    <row r="63" spans="1:21" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6043,7 +6196,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="28.8">
+    <row r="64" spans="1:21" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -8446,15 +8599,18 @@
         <v>37</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F130" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G130" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="G130" s="31" t="s">
+      <c r="H130" s="31" t="s">
         <v>902</v>
       </c>
-      <c r="H130" s="31" t="s">
+      <c r="I130" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10267,6 +10423,623 @@
       <c r="K186" s="31" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="187" spans="1:11" ht="28.8">
+      <c r="A187" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H187" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="28.8">
+      <c r="A188" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G188" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H188" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I188" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="28.8">
+      <c r="A189" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H189" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I189" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="28.8">
+      <c r="A190" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I190" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G191" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H191" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I191" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J191" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K191" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="28.8">
+      <c r="A192" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I192" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="28.8">
+      <c r="A193" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G193" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="H193" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I193" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J193" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K193" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L193" s="31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M193" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="28.8">
+      <c r="A194" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F194" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H194" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="43.2">
+      <c r="A195" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F195" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H195" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="43.2">
+      <c r="A196" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H196" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I196" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L196" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="28.8">
+      <c r="A197" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="28.8">
+      <c r="A198" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F198" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G198" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H198" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K198" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="28.8">
+      <c r="A199" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F199" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G199" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H199" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I199" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="J199" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="K199" s="31" t="s">
+        <v>884</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M199" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F200" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G200" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H200" s="31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I200" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="28.8">
+      <c r="A201" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F201" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G201" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H201" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J201" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="28.8">
+      <c r="A202" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F202" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G202" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H202" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="26.4">
+      <c r="A203" s="64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F203" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H203" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I203" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J203" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K203" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="L204" s="9"/>
+      <c r="N204" s="7"/>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="F209" s="7"/>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="66"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="68"/>
+      <c r="J210" s="65"/>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="F214" s="7"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="F215" s="7"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="I216" s="7"/>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10279,11 +11052,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC362"/>
+  <dimension ref="A1:AC393"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J362" sqref="J362"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19491,6 +20264,419 @@
         <v>1033</v>
       </c>
     </row>
+    <row r="363" spans="1:14" ht="28.8">
+      <c r="A363" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B363" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D363" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E363" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="28.8">
+      <c r="A364" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B364" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E364" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="28.8">
+      <c r="A365" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B365" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E365" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="28.8">
+      <c r="A366" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B366" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D366" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E366" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="28.8">
+      <c r="A367" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B367" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D367" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E367" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="43.2">
+      <c r="A368" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B368" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D368" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E368" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" ht="28.8">
+      <c r="A369" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B369" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E369" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L369" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P369" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" ht="28.8">
+      <c r="A370" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B370" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D370" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E370" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" ht="43.2">
+      <c r="A371" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B371" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E371" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
+      <c r="A372" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B372" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E372" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L372" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" ht="43.2">
+      <c r="A373" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B373" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E373" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" ht="28.8">
+      <c r="A374" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B374" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E374" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L374" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" ht="28.8">
+      <c r="A375" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B375" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D375" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E375" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" ht="28.8">
+      <c r="A376" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B376" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D376" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E376" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" ht="43.95" customHeight="1">
+      <c r="A377" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B377" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D377" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E377" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L377" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" ht="28.8">
+      <c r="A378" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B378" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D378" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E378" s="63" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L378" s="7"/>
+    </row>
+    <row r="379" spans="1:16" ht="28.8">
+      <c r="A379" s="64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B379" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D379" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E379" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L379" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16">
+      <c r="A380" s="7"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="27"/>
+      <c r="D380" s="27"/>
+      <c r="E380" s="63"/>
+      <c r="L380" s="7"/>
+    </row>
+    <row r="381" spans="1:16">
+      <c r="B381" s="26"/>
+      <c r="C381" s="27"/>
+      <c r="D381" s="27"/>
+      <c r="E381" s="63"/>
+    </row>
+    <row r="382" spans="1:16">
+      <c r="A382" s="7"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="27"/>
+      <c r="D382" s="27"/>
+      <c r="E382" s="63"/>
+      <c r="L382" s="7"/>
+    </row>
+    <row r="383" spans="1:16">
+      <c r="A383" s="7"/>
+      <c r="B383" s="26"/>
+      <c r="C383" s="27"/>
+      <c r="D383" s="27"/>
+      <c r="E383" s="63"/>
+      <c r="L383" s="7"/>
+    </row>
+    <row r="384" spans="1:16">
+      <c r="A384" s="7"/>
+      <c r="B384" s="26"/>
+      <c r="C384" s="27"/>
+      <c r="D384" s="27"/>
+      <c r="E384" s="63"/>
+      <c r="L384" s="7"/>
+    </row>
+    <row r="385" spans="1:17">
+      <c r="A385" s="7"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="27"/>
+      <c r="D385" s="27"/>
+      <c r="E385" s="63"/>
+    </row>
+    <row r="386" spans="1:17">
+      <c r="A386" s="7"/>
+      <c r="B386" s="26"/>
+      <c r="C386" s="27"/>
+      <c r="D386" s="27"/>
+      <c r="E386" s="63"/>
+      <c r="L386" s="7"/>
+      <c r="P386" s="2"/>
+      <c r="Q386" s="2"/>
+    </row>
+    <row r="387" spans="1:17">
+      <c r="A387" s="7"/>
+      <c r="B387" s="26"/>
+      <c r="C387" s="27"/>
+      <c r="D387" s="27"/>
+      <c r="E387" s="63"/>
+    </row>
+    <row r="388" spans="1:17">
+      <c r="A388" s="7"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="27"/>
+      <c r="D388" s="27"/>
+      <c r="E388" s="63"/>
+    </row>
+    <row r="389" spans="1:17" s="2" customFormat="1">
+      <c r="A389" s="7"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="27"/>
+      <c r="D389" s="27"/>
+      <c r="E389" s="63"/>
+    </row>
+    <row r="390" spans="1:17">
+      <c r="A390" s="7"/>
+      <c r="B390" s="26"/>
+      <c r="C390" s="27"/>
+      <c r="D390" s="27"/>
+      <c r="E390" s="63"/>
+    </row>
+    <row r="391" spans="1:17">
+      <c r="A391" s="7"/>
+      <c r="B391" s="26"/>
+      <c r="C391" s="27"/>
+      <c r="D391" s="27"/>
+      <c r="E391" s="63"/>
+    </row>
+    <row r="392" spans="1:17">
+      <c r="A392" s="7"/>
+      <c r="B392" s="26"/>
+      <c r="C392" s="27"/>
+      <c r="D392" s="27"/>
+      <c r="E392" s="63"/>
+    </row>
+    <row r="393" spans="1:17">
+      <c r="A393" s="7"/>
+      <c r="B393" s="26"/>
+      <c r="C393" s="27"/>
+      <c r="D393" s="27"/>
+      <c r="E393" s="63"/>
+      <c r="L393" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -19500,7 +20686,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E362">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E393">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20021,9 +21207,43 @@
     <hyperlink ref="D362" r:id="rId514"/>
     <hyperlink ref="C360" r:id="rId515"/>
     <hyperlink ref="D360" r:id="rId516"/>
+    <hyperlink ref="C363" r:id="rId517"/>
+    <hyperlink ref="D363" r:id="rId518"/>
+    <hyperlink ref="C364" r:id="rId519"/>
+    <hyperlink ref="D364" r:id="rId520"/>
+    <hyperlink ref="D365" r:id="rId521"/>
+    <hyperlink ref="C365" r:id="rId522"/>
+    <hyperlink ref="C366" r:id="rId523"/>
+    <hyperlink ref="D366" r:id="rId524"/>
+    <hyperlink ref="C367" r:id="rId525"/>
+    <hyperlink ref="D367" r:id="rId526"/>
+    <hyperlink ref="C368" r:id="rId527"/>
+    <hyperlink ref="D368" r:id="rId528"/>
+    <hyperlink ref="C369" r:id="rId529"/>
+    <hyperlink ref="D369" r:id="rId530"/>
+    <hyperlink ref="C370" r:id="rId531"/>
+    <hyperlink ref="D370" r:id="rId532"/>
+    <hyperlink ref="C371" r:id="rId533"/>
+    <hyperlink ref="D371" r:id="rId534"/>
+    <hyperlink ref="C373" r:id="rId535"/>
+    <hyperlink ref="D373" r:id="rId536"/>
+    <hyperlink ref="C374" r:id="rId537"/>
+    <hyperlink ref="D374" r:id="rId538"/>
+    <hyperlink ref="C372" r:id="rId539"/>
+    <hyperlink ref="D372" r:id="rId540"/>
+    <hyperlink ref="C375" r:id="rId541"/>
+    <hyperlink ref="D375" r:id="rId542"/>
+    <hyperlink ref="C376" r:id="rId543"/>
+    <hyperlink ref="D376" r:id="rId544"/>
+    <hyperlink ref="C377" r:id="rId545"/>
+    <hyperlink ref="D377" r:id="rId546"/>
+    <hyperlink ref="C378" r:id="rId547"/>
+    <hyperlink ref="D378" r:id="rId548"/>
+    <hyperlink ref="C379" r:id="rId549"/>
+    <hyperlink ref="D379" r:id="rId550"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId517"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId551"/>
 </worksheet>
 </file>
 
@@ -20118,14 +21338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.6640625" style="19" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.109375" style="18" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.5546875" style="18" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
@@ -20148,26 +21368,26 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -20859,7 +22079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.8" customHeight="1">
+    <row r="31" spans="1:11" ht="25.95" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>409</v>
       </c>
@@ -22883,7 +24103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.8" customHeight="1">
+    <row r="99" spans="1:10" ht="43.95" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
@@ -25214,29 +26434,29 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
     <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.77734375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
     <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
     <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.21875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
     <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.77734375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
     <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
     <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
     <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
     <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.21875" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
     <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
@@ -25245,26 +26465,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -25296,7 +26516,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -25360,7 +26580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -25392,7 +26612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.8" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="1108">
   <si>
     <t>TestCase</t>
   </si>
@@ -3335,12 +3335,63 @@
   <si>
     <t>VerifyThatDecisionSectionIsDisplayedInTheSidePanel</t>
   </si>
+  <si>
+    <t>Verify_That_Expert_Is_Not_Able_To_Submit_Empty_Answer</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Section_Is_Aligned</t>
+  </si>
+  <si>
+    <t>Verify_That_Summary_View_And_Source_View_Toggle_Is_Display</t>
+  </si>
+  <si>
+    <t>Verify_That_Multiple_Tag_Is_Available_At_The_Source_View</t>
+  </si>
+  <si>
+    <t>Verify_That_Inside_Source_View_Passages_Option_Is_Working_Such_As_Normal_Passage</t>
+  </si>
+  <si>
+    <t>VerifyThatUserIsNotAbleToSubmitEmptyAnswer</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatarSectionIsAligned</t>
+  </si>
+  <si>
+    <t>VerifyThatSummaryViewAndSourceViewIsDisplay</t>
+  </si>
+  <si>
+    <t>ClickOnSourceViewOption</t>
+  </si>
+  <si>
+    <t>VerifyThatMultipleTagIsAvailableAtTheSourceViewPage</t>
+  </si>
+  <si>
+    <t>ClickOnSourceViewDownIcon</t>
+  </si>
+  <si>
+    <t>VerifyThatSourcePassageIsWorkingSuchAsNormalPassage</t>
+  </si>
+  <si>
+    <t>Verify_That_User_Redirect_On_Same_Topic_Which_Was_Selected</t>
+  </si>
+  <si>
+    <t>ClickOnTopicCards</t>
+  </si>
+  <si>
+    <t>VerifyThatUserRedirectOnSameTopicCardWhichWasSelected</t>
+  </si>
+  <si>
+    <t>Verify_That_Group_By_Filter_Is_Working</t>
+  </si>
+  <si>
+    <t>VerifyThatGroupByFilterIsWorking</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3425,12 +3476,6 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3625,7 +3670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3792,18 +3837,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4106,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H188" workbookViewId="0">
-      <selection activeCell="K194" sqref="K194"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4141,26 +4174,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="71"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -10601,7 +10634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="28.8">
+    <row r="193" spans="1:15" ht="28.8">
       <c r="A193" s="7" t="s">
         <v>1063</v>
       </c>
@@ -10642,7 +10675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="28.8">
+    <row r="194" spans="1:15" ht="28.8">
       <c r="A194" s="7" t="s">
         <v>1067</v>
       </c>
@@ -10668,7 +10701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="43.2">
+    <row r="195" spans="1:15" ht="43.2">
       <c r="A195" s="7" t="s">
         <v>1069</v>
       </c>
@@ -10694,7 +10727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="43.2">
+    <row r="196" spans="1:15" ht="43.2">
       <c r="A196" s="7" t="s">
         <v>1075</v>
       </c>
@@ -10732,7 +10765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="28.8">
+    <row r="197" spans="1:15" ht="28.8">
       <c r="A197" s="7" t="s">
         <v>1071</v>
       </c>
@@ -10749,7 +10782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="28.8">
+    <row r="198" spans="1:15" ht="28.8">
       <c r="A198" s="7" t="s">
         <v>1073</v>
       </c>
@@ -10784,7 +10817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="28.8">
+    <row r="199" spans="1:15" ht="28.8">
       <c r="A199" s="31" t="s">
         <v>1080</v>
       </c>
@@ -10825,7 +10858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:15">
       <c r="A200" s="31" t="s">
         <v>1082</v>
       </c>
@@ -10854,7 +10887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="28.8">
+    <row r="201" spans="1:15" ht="28.8">
       <c r="A201" s="7" t="s">
         <v>1085</v>
       </c>
@@ -10886,7 +10919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="28.8">
+    <row r="202" spans="1:15" ht="28.8">
       <c r="A202" s="7" t="s">
         <v>1087</v>
       </c>
@@ -10912,7 +10945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="26.4">
+    <row r="203" spans="1:15" ht="26.4">
       <c r="A203" s="64" t="s">
         <v>1089</v>
       </c>
@@ -10947,54 +10980,244 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="L204" s="9"/>
-      <c r="N204" s="7"/>
-    </row>
-    <row r="205" spans="1:14">
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-    </row>
-    <row r="206" spans="1:14">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-    </row>
-    <row r="207" spans="1:14">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="I207" s="7"/>
-    </row>
-    <row r="208" spans="1:14">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="K208" s="7"/>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="F209" s="7"/>
+    <row r="204" spans="1:15" ht="28.8">
+      <c r="A204" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F204" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I204" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="J204" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="K204" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="L204" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="M204" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O204" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F205" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="28.8">
+      <c r="A206" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F206" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G206" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H206" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I206" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J206" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="28.8">
+      <c r="A207" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F207" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H207" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I207" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J207" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K207" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="28.8">
+      <c r="A208" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F208" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H208" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I208" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J208" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K208" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="L208" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M208" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="28.8">
+      <c r="A209" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F209" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="H209" s="31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I209" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J209" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="66"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="68"/>
-      <c r="J210" s="65"/>
+      <c r="A210" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G210" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H210" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I210" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J210" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="7"/>
@@ -11052,11 +11275,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC393"/>
+  <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20572,60 +20795,171 @@
         <v>962</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
-      <c r="A380" s="7"/>
-      <c r="B380" s="26"/>
-      <c r="C380" s="27"/>
-      <c r="D380" s="27"/>
-      <c r="E380" s="63"/>
-      <c r="L380" s="7"/>
+    <row r="380" spans="1:16" ht="28.8">
+      <c r="A380" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B380" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D380" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E380" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+      <c r="H380" s="2"/>
+      <c r="I380" s="2"/>
+      <c r="J380" s="2"/>
+      <c r="K380" s="2"/>
+      <c r="L380" s="7" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="381" spans="1:16">
-      <c r="B381" s="26"/>
-      <c r="C381" s="27"/>
-      <c r="D381" s="27"/>
-      <c r="E381" s="63"/>
-    </row>
-    <row r="382" spans="1:16">
-      <c r="A382" s="7"/>
-      <c r="B382" s="26"/>
-      <c r="C382" s="27"/>
-      <c r="D382" s="27"/>
-      <c r="E382" s="63"/>
-      <c r="L382" s="7"/>
-    </row>
-    <row r="383" spans="1:16">
-      <c r="A383" s="7"/>
-      <c r="B383" s="26"/>
-      <c r="C383" s="27"/>
-      <c r="D383" s="27"/>
-      <c r="E383" s="63"/>
-      <c r="L383" s="7"/>
-    </row>
-    <row r="384" spans="1:16">
-      <c r="A384" s="7"/>
-      <c r="B384" s="26"/>
-      <c r="C384" s="27"/>
-      <c r="D384" s="27"/>
-      <c r="E384" s="63"/>
-      <c r="L384" s="7"/>
-    </row>
-    <row r="385" spans="1:17">
-      <c r="A385" s="7"/>
-      <c r="B385" s="26"/>
-      <c r="C385" s="27"/>
-      <c r="D385" s="27"/>
-      <c r="E385" s="63"/>
-    </row>
-    <row r="386" spans="1:17">
-      <c r="A386" s="7"/>
-      <c r="B386" s="26"/>
-      <c r="C386" s="27"/>
-      <c r="D386" s="27"/>
-      <c r="E386" s="63"/>
-      <c r="L386" s="7"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
+      <c r="A381" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B381" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D381" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E381" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
+      <c r="H381" s="2"/>
+      <c r="I381" s="2"/>
+      <c r="J381" s="2"/>
+      <c r="K381" s="2"/>
+      <c r="L381" s="2"/>
+    </row>
+    <row r="382" spans="1:16" s="2" customFormat="1" ht="28.8">
+      <c r="A382" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B382" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D382" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E382" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L382" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="28.8">
+      <c r="A383" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B383" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D383" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E383" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2"/>
+      <c r="I383" s="2"/>
+      <c r="J383" s="2"/>
+      <c r="K383" s="2"/>
+      <c r="L383" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" ht="43.2">
+      <c r="A384" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B384" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D384" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E384" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+      <c r="H384" s="2"/>
+      <c r="I384" s="2"/>
+      <c r="J384" s="2"/>
+      <c r="K384" s="2"/>
+      <c r="L384" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" ht="28.8">
+      <c r="A385" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D385" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E385" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L385" s="7"/>
+    </row>
+    <row r="386" spans="1:17" ht="28.8">
+      <c r="A386" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B386" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D386" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E386" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+      <c r="H386" s="2"/>
+      <c r="I386" s="2"/>
+      <c r="J386" s="2"/>
+      <c r="K386" s="2"/>
+      <c r="L386" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="387" spans="1:17">
       <c r="A387" s="7"/>
@@ -20633,6 +20967,9 @@
       <c r="C387" s="27"/>
       <c r="D387" s="27"/>
       <c r="E387" s="63"/>
+      <c r="L387" s="7"/>
+      <c r="P387" s="2"/>
+      <c r="Q387" s="2"/>
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="7"/>
@@ -20641,14 +20978,14 @@
       <c r="D388" s="27"/>
       <c r="E388" s="63"/>
     </row>
-    <row r="389" spans="1:17" s="2" customFormat="1">
+    <row r="389" spans="1:17">
       <c r="A389" s="7"/>
       <c r="B389" s="26"/>
       <c r="C389" s="27"/>
       <c r="D389" s="27"/>
       <c r="E389" s="63"/>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" s="2" customFormat="1">
       <c r="A390" s="7"/>
       <c r="B390" s="26"/>
       <c r="C390" s="27"/>
@@ -20675,7 +21012,14 @@
       <c r="C393" s="27"/>
       <c r="D393" s="27"/>
       <c r="E393" s="63"/>
-      <c r="L393" s="7"/>
+    </row>
+    <row r="394" spans="1:17">
+      <c r="A394" s="7"/>
+      <c r="B394" s="26"/>
+      <c r="C394" s="27"/>
+      <c r="D394" s="27"/>
+      <c r="E394" s="63"/>
+      <c r="L394" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -20686,7 +21030,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E393">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E394">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21241,9 +21585,23 @@
     <hyperlink ref="D378" r:id="rId548"/>
     <hyperlink ref="C379" r:id="rId549"/>
     <hyperlink ref="D379" r:id="rId550"/>
+    <hyperlink ref="C380" r:id="rId551"/>
+    <hyperlink ref="D380" r:id="rId552"/>
+    <hyperlink ref="C381" r:id="rId553"/>
+    <hyperlink ref="D381" r:id="rId554"/>
+    <hyperlink ref="C382" r:id="rId555"/>
+    <hyperlink ref="D382" r:id="rId556"/>
+    <hyperlink ref="C383" r:id="rId557"/>
+    <hyperlink ref="D383" r:id="rId558"/>
+    <hyperlink ref="C384" r:id="rId559"/>
+    <hyperlink ref="D384" r:id="rId560"/>
+    <hyperlink ref="C385" r:id="rId561"/>
+    <hyperlink ref="D385" r:id="rId562"/>
+    <hyperlink ref="C386" r:id="rId563"/>
+    <hyperlink ref="D386" r:id="rId564"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId551"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId565"/>
 </worksheet>
 </file>
 
@@ -21368,26 +21726,26 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="74"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -26465,26 +26823,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="71"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="1110">
   <si>
     <t>TestCase</t>
   </si>
@@ -3386,12 +3386,18 @@
   <si>
     <t>VerifyThatGroupByFilterIsWorking</t>
   </si>
+  <si>
+    <t>Verify_That_Same_Filter_Is_Not_Applying_For_Multiple_Time</t>
+  </si>
+  <si>
+    <t>VerifyThatSameFilterIsNotWorkingForMultipleTime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3476,6 +3482,12 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3670,7 +3682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3855,6 +3867,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4137,10 +4158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V218"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView topLeftCell="E159" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11155,114 +11176,152 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="28.8">
-      <c r="A209" s="7" t="s">
+    <row r="209" spans="1:12" ht="28.8">
+      <c r="A209" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F209" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H209" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I209" s="71" t="s">
+        <v>998</v>
+      </c>
+      <c r="J209" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="K209" s="73" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L209" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="28.8">
+      <c r="A210" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E209" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F209" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G209" s="31" t="s">
+      <c r="B210" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G210" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="H209" s="31" t="s">
+      <c r="H210" s="31" t="s">
         <v>1104</v>
       </c>
-      <c r="I209" s="31" t="s">
+      <c r="I210" s="31" t="s">
         <v>1105</v>
       </c>
-      <c r="J209" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="7" t="s">
+      <c r="J210" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E210" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F210" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G210" s="31" t="s">
+      <c r="B211" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F211" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G211" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H210" s="31" t="s">
+      <c r="H211" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I210" s="31" t="s">
+      <c r="I211" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="J210" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="J211" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:12">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:12">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" spans="1:10">
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:12">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="F216" s="7"/>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11275,11 +11334,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC394"/>
+  <dimension ref="A1:AC395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20917,9 +20976,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="28.8">
+    <row r="385" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A385" s="7" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B385" s="26" t="s">
         <v>4</v>
@@ -20933,11 +20992,19 @@
       <c r="E385" s="63" t="s">
         <v>761</v>
       </c>
-      <c r="L385" s="7"/>
+      <c r="L385" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P385" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q385" s="2" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="386" spans="1:17" ht="28.8">
       <c r="A386" s="7" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B386" s="26" t="s">
         <v>4</v>
@@ -20951,25 +21018,35 @@
       <c r="E386" s="63" t="s">
         <v>761</v>
       </c>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2"/>
-      <c r="K386" s="2"/>
       <c r="L386" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
-      <c r="A387" s="7"/>
-      <c r="B387" s="26"/>
-      <c r="C387" s="27"/>
-      <c r="D387" s="27"/>
-      <c r="E387" s="63"/>
-      <c r="L387" s="7"/>
-      <c r="P387" s="2"/>
-      <c r="Q387" s="2"/>
+    <row r="387" spans="1:17" ht="28.8">
+      <c r="A387" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B387" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D387" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E387" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+      <c r="H387" s="2"/>
+      <c r="I387" s="2"/>
+      <c r="J387" s="2"/>
+      <c r="K387" s="2"/>
+      <c r="L387" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="7"/>
@@ -20977,6 +21054,9 @@
       <c r="C388" s="27"/>
       <c r="D388" s="27"/>
       <c r="E388" s="63"/>
+      <c r="L388" s="7"/>
+      <c r="P388" s="2"/>
+      <c r="Q388" s="2"/>
     </row>
     <row r="389" spans="1:17">
       <c r="A389" s="7"/>
@@ -20985,14 +21065,14 @@
       <c r="D389" s="27"/>
       <c r="E389" s="63"/>
     </row>
-    <row r="390" spans="1:17" s="2" customFormat="1">
+    <row r="390" spans="1:17">
       <c r="A390" s="7"/>
       <c r="B390" s="26"/>
       <c r="C390" s="27"/>
       <c r="D390" s="27"/>
       <c r="E390" s="63"/>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" s="2" customFormat="1">
       <c r="A391" s="7"/>
       <c r="B391" s="26"/>
       <c r="C391" s="27"/>
@@ -21019,7 +21099,14 @@
       <c r="C394" s="27"/>
       <c r="D394" s="27"/>
       <c r="E394" s="63"/>
-      <c r="L394" s="7"/>
+    </row>
+    <row r="395" spans="1:17">
+      <c r="A395" s="7"/>
+      <c r="B395" s="26"/>
+      <c r="C395" s="27"/>
+      <c r="D395" s="27"/>
+      <c r="E395" s="63"/>
+      <c r="L395" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21030,7 +21117,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E394">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E395">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21595,13 +21682,15 @@
     <hyperlink ref="D383" r:id="rId558"/>
     <hyperlink ref="C384" r:id="rId559"/>
     <hyperlink ref="D384" r:id="rId560"/>
-    <hyperlink ref="C385" r:id="rId561"/>
-    <hyperlink ref="D385" r:id="rId562"/>
-    <hyperlink ref="C386" r:id="rId563"/>
-    <hyperlink ref="D386" r:id="rId564"/>
+    <hyperlink ref="C386" r:id="rId561"/>
+    <hyperlink ref="D386" r:id="rId562"/>
+    <hyperlink ref="C387" r:id="rId563"/>
+    <hyperlink ref="D387" r:id="rId564"/>
+    <hyperlink ref="C385" r:id="rId565"/>
+    <hyperlink ref="D385" r:id="rId566"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId565"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId567"/>
 </worksheet>
 </file>
 

--- a/Prod_TestData.xlsx
+++ b/Prod_TestData.xlsx
@@ -3850,6 +3850,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3867,15 +3876,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4160,8 +4160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V218"/>
   <sheetViews>
-    <sheetView topLeftCell="E159" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4195,26 +4195,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -11201,13 +11201,13 @@
       <c r="H209" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I209" s="71" t="s">
+      <c r="I209" s="65" t="s">
         <v>998</v>
       </c>
-      <c r="J209" s="72" t="s">
+      <c r="J209" s="66" t="s">
         <v>999</v>
       </c>
-      <c r="K209" s="73" t="s">
+      <c r="K209" s="67" t="s">
         <v>1109</v>
       </c>
       <c r="L209" s="31" t="s">
@@ -11337,8 +11337,8 @@
   <dimension ref="A1:AC395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21815,26 +21815,26 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -26912,26 +26912,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
